--- a/0_Author List_Meta_Analysis_Paper_Aug2024.xlsx
+++ b/0_Author List_Meta_Analysis_Paper_Aug2024.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmir/Library/CloudStorage/Dropbox/20240822_Authors_List_Excel_meta_analysis_paper/Authors List Spreadsheet - Meta Analysis Paper - Aug 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmir/Library/CloudStorage/Dropbox/20240822_Authors_List_Excel_meta_analysis_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC11014-EA49-DD47-AE55-83386C99C781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5874AA9-1F35-7A41-91B8-91A32A0234F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="500" windowWidth="47100" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="46320" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Authors" sheetId="1" r:id="rId1"/>
+    <sheet name="Affiliations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$81</definedName>
-    <definedName name="OLE_LINK2" localSheetId="0">Sheet1!$A$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Authors!$A$1:$S$81</definedName>
+    <definedName name="OLE_LINK2" localSheetId="0">Authors!$A$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="330">
   <si>
-    <t>Banner</t>
-  </si>
-  <si>
     <t>Primary Affiliation</t>
   </si>
   <si>
@@ -1030,6 +1028,9 @@
   </si>
   <si>
     <t>Name W/O Title (final name to use in authors list)</t>
+  </si>
+  <si>
+    <t>Is Banner</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1130,7 @@
     <tableColumn id="3" xr3:uid="{FFE76951-E6CD-254C-A7E1-90DF03731E69}" name="Sort Level 2: Senior Order (manual)"/>
     <tableColumn id="4" xr3:uid="{17566D9A-6F7A-2348-B6FF-8CB49DFA5378}" name="Sort Level 3: Surname (for alphabetical sorting)"/>
     <tableColumn id="5" xr3:uid="{B0955C3B-157A-BA42-B1A4-5BF00A152599}" name="ORCID ID"/>
-    <tableColumn id="6" xr3:uid="{5A50E74C-B6E4-CA48-B3A1-23B4A0BA0F68}" name="Banner"/>
+    <tableColumn id="6" xr3:uid="{5A50E74C-B6E4-CA48-B3A1-23B4A0BA0F68}" name="Is Banner"/>
     <tableColumn id="7" xr3:uid="{3199623D-C862-9442-8547-56C3DF896997}" name="Email address"/>
     <tableColumn id="8" xr3:uid="{03EDD5E1-2E6E-F144-A44F-4C06F018EDA0}" name="Primary Affiliation"/>
     <tableColumn id="9" xr3:uid="{3E9D3220-D865-AA46-83D7-5A584B0EF17B}" name="Secondary Affiliation"/>
@@ -1439,18 +1440,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.6640625" customWidth="1"/>
     <col min="9" max="9" width="35.5" customWidth="1"/>
     <col min="10" max="10" width="37.6640625" customWidth="1"/>
@@ -1465,68 +1466,68 @@
     <col min="19" max="19" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1535,12 +1536,12 @@
         <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1549,12 +1550,12 @@
         <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1563,12 +1564,12 @@
         <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1577,12 +1578,12 @@
         <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1591,18 +1592,18 @@
         <v>99</v>
       </c>
       <c r="E6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" t="s">
         <v>327</v>
       </c>
-      <c r="G6" t="s">
-        <v>328</v>
-      </c>
       <c r="H6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1611,364 +1612,364 @@
         <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>99</v>
-      </c>
-      <c r="C8">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>11</v>
-      </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>99</v>
-      </c>
-      <c r="C9">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" t="s">
         <v>299</v>
       </c>
-      <c r="B10">
-        <v>99</v>
-      </c>
-      <c r="C10">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" t="s">
-        <v>300</v>
-      </c>
       <c r="H10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" t="s">
         <v>305</v>
       </c>
-      <c r="I10" t="s">
-        <v>306</v>
-      </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>99</v>
-      </c>
-      <c r="C11">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
       <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" t="s">
         <v>24</v>
-      </c>
-      <c r="S11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>99</v>
+      </c>
+      <c r="C12">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
-        <v>99</v>
-      </c>
-      <c r="C12">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
       <c r="Q12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>99</v>
-      </c>
-      <c r="C13">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" t="s">
         <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
-        <v>99</v>
-      </c>
-      <c r="C14">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="B15">
-        <v>99</v>
-      </c>
-      <c r="C15">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" t="s">
         <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="B16">
-        <v>99</v>
-      </c>
-      <c r="C16">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="G16" t="s">
+      <c r="L16" t="s">
         <v>49</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" t="s">
-        <v>50</v>
-      </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="B17">
-        <v>99</v>
-      </c>
-      <c r="C17">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
+      <c r="L17" t="s">
         <v>55</v>
       </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" t="s">
-        <v>56</v>
-      </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
         <v>57</v>
       </c>
-      <c r="B18">
-        <v>99</v>
-      </c>
-      <c r="C18">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
+      <c r="L18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" t="s">
         <v>62</v>
-      </c>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>99</v>
@@ -1977,7 +1978,7 @@
         <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1985,149 +1986,149 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" t="s">
         <v>297</v>
       </c>
-      <c r="B20">
-        <v>99</v>
-      </c>
-      <c r="C20">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>315</v>
-      </c>
-      <c r="G20" t="s">
-        <v>298</v>
-      </c>
       <c r="H20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>99</v>
+      </c>
+      <c r="C21">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="B21">
-        <v>99</v>
-      </c>
-      <c r="C21">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
-      </c>
       <c r="I21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
         <v>311</v>
       </c>
-      <c r="B22">
-        <v>99</v>
-      </c>
-      <c r="C22">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" t="s">
-        <v>312</v>
-      </c>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="B23">
-        <v>99</v>
-      </c>
-      <c r="C23">
-        <v>99</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
         <v>74</v>
       </c>
-      <c r="G23" t="s">
+      <c r="L23" t="s">
         <v>76</v>
       </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" t="s">
-        <v>77</v>
-      </c>
       <c r="Q23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>99</v>
+      </c>
+      <c r="C24">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="B24">
-        <v>99</v>
-      </c>
-      <c r="C24">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>79</v>
       </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>99</v>
@@ -2136,27 +2137,27 @@
         <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <v>99</v>
@@ -2165,102 +2166,102 @@
         <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
       </c>
-      <c r="B27">
-        <v>99</v>
-      </c>
-      <c r="C27">
-        <v>99</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
         <v>86</v>
       </c>
-      <c r="G27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>87</v>
-      </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="B28">
-        <v>99</v>
-      </c>
-      <c r="C28">
-        <v>99</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
         <v>90</v>
       </c>
-      <c r="G28" t="s">
+      <c r="L28" t="s">
         <v>92</v>
       </c>
-      <c r="H28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" t="s">
-        <v>93</v>
-      </c>
       <c r="Q28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
         <v>94</v>
       </c>
-      <c r="B29">
-        <v>99</v>
-      </c>
-      <c r="C29">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
         <v>95</v>
       </c>
-      <c r="G29" t="s">
+      <c r="L29" t="s">
         <v>97</v>
       </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" t="s">
-        <v>98</v>
-      </c>
       <c r="N29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>99</v>
@@ -2269,376 +2270,376 @@
         <v>99</v>
       </c>
       <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
         <v>100</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" t="s">
         <v>101</v>
-      </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <v>99</v>
+      </c>
+      <c r="C31">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="B31">
-        <v>99</v>
-      </c>
-      <c r="C31">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" t="s">
         <v>104</v>
       </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" t="s">
-        <v>105</v>
-      </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32">
+        <v>99</v>
+      </c>
+      <c r="C32">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
         <v>108</v>
       </c>
-      <c r="B32">
-        <v>99</v>
-      </c>
-      <c r="C32">
-        <v>99</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" t="s">
         <v>109</v>
       </c>
-      <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" t="s">
-        <v>110</v>
-      </c>
       <c r="I32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33">
+        <v>99</v>
+      </c>
+      <c r="C33">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
         <v>113</v>
       </c>
-      <c r="B33">
-        <v>99</v>
-      </c>
-      <c r="C33">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" t="s">
         <v>114</v>
       </c>
-      <c r="E33" t="s">
+      <c r="L33" t="s">
         <v>117</v>
       </c>
-      <c r="G33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" t="s">
-        <v>115</v>
-      </c>
-      <c r="L33" t="s">
-        <v>118</v>
-      </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34">
+        <v>99</v>
+      </c>
+      <c r="C34">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
         <v>119</v>
       </c>
-      <c r="B34">
-        <v>99</v>
-      </c>
-      <c r="C34">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>120</v>
-      </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="B35">
-        <v>99</v>
-      </c>
-      <c r="C35">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>122</v>
       </c>
-      <c r="G35" t="s">
-        <v>123</v>
-      </c>
       <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N35" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" t="s">
         <v>24</v>
-      </c>
-      <c r="R35" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>99</v>
+      </c>
+      <c r="C36">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="B36">
-        <v>99</v>
-      </c>
-      <c r="C36">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>125</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
         <v>126</v>
       </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" t="s">
-        <v>127</v>
-      </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>99</v>
+      </c>
+      <c r="C37">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
         <v>128</v>
       </c>
-      <c r="B37">
-        <v>99</v>
-      </c>
-      <c r="C37">
-        <v>99</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
         <v>129</v>
       </c>
-      <c r="G37" t="s">
-        <v>130</v>
-      </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N37" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" t="s">
         <v>24</v>
-      </c>
-      <c r="R37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S37" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="B38">
-        <v>99</v>
-      </c>
-      <c r="C38">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s">
         <v>132</v>
       </c>
-      <c r="G38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" t="s">
-        <v>133</v>
-      </c>
       <c r="L38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39">
+        <v>99</v>
+      </c>
+      <c r="C39">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="B39">
-        <v>99</v>
-      </c>
-      <c r="C39">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>136</v>
       </c>
-      <c r="G39" t="s">
-        <v>137</v>
-      </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40">
+        <v>99</v>
+      </c>
+      <c r="C40">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
         <v>138</v>
       </c>
-      <c r="B40">
-        <v>99</v>
-      </c>
-      <c r="C40">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>139</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" t="s">
+        <v>11</v>
+      </c>
+      <c r="S40" t="s">
         <v>140</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" t="s">
-        <v>98</v>
-      </c>
-      <c r="N40" t="s">
-        <v>12</v>
-      </c>
-      <c r="P40" t="s">
-        <v>12</v>
-      </c>
-      <c r="S40" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41">
+        <v>99</v>
+      </c>
+      <c r="C41">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="B41">
-        <v>99</v>
-      </c>
-      <c r="C41">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" t="s">
         <v>143</v>
       </c>
-      <c r="E41" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>144</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>145</v>
       </c>
-      <c r="J41" t="s">
-        <v>146</v>
-      </c>
       <c r="L41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41" t="s">
         <v>62</v>
-      </c>
-      <c r="M41" t="s">
-        <v>12</v>
-      </c>
-      <c r="S41" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42">
         <v>99</v>
@@ -2647,820 +2648,820 @@
         <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43">
+        <v>99</v>
+      </c>
+      <c r="C43">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
         <v>151</v>
       </c>
-      <c r="B43">
-        <v>99</v>
-      </c>
-      <c r="C43">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" t="s">
         <v>152</v>
       </c>
-      <c r="E43" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" t="s">
-        <v>153</v>
-      </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44">
+        <v>99</v>
+      </c>
+      <c r="C44">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
         <v>155</v>
       </c>
-      <c r="B44">
-        <v>99</v>
-      </c>
-      <c r="C44">
-        <v>99</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
         <v>156</v>
       </c>
-      <c r="E44" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>157</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>158</v>
       </c>
-      <c r="J44" t="s">
-        <v>159</v>
-      </c>
       <c r="L44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45">
+        <v>99</v>
+      </c>
+      <c r="C45">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
         <v>162</v>
       </c>
-      <c r="B45">
-        <v>99</v>
-      </c>
-      <c r="C45">
-        <v>99</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" t="s">
         <v>163</v>
       </c>
-      <c r="G45" t="s">
-        <v>165</v>
-      </c>
-      <c r="H45" t="s">
-        <v>164</v>
-      </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
         <v>166</v>
       </c>
-      <c r="B46">
-        <v>99</v>
-      </c>
-      <c r="C46">
-        <v>99</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>167</v>
       </c>
-      <c r="G46" t="s">
-        <v>168</v>
-      </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
         <v>169</v>
       </c>
-      <c r="B47">
-        <v>99</v>
-      </c>
-      <c r="C47">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" t="s">
         <v>170</v>
       </c>
-      <c r="G47" t="s">
+      <c r="L47" t="s">
         <v>172</v>
       </c>
-      <c r="H47" t="s">
-        <v>171</v>
-      </c>
-      <c r="L47" t="s">
-        <v>173</v>
-      </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48">
+        <v>99</v>
+      </c>
+      <c r="C48">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
         <v>174</v>
       </c>
-      <c r="B48">
-        <v>99</v>
-      </c>
-      <c r="C48">
-        <v>99</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>175</v>
       </c>
-      <c r="G48" t="s">
-        <v>176</v>
-      </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49">
+        <v>99</v>
+      </c>
+      <c r="C49">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
         <v>177</v>
       </c>
-      <c r="B49">
-        <v>99</v>
-      </c>
-      <c r="C49">
-        <v>99</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>178</v>
       </c>
-      <c r="G49" t="s">
-        <v>179</v>
-      </c>
       <c r="H49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
         <v>180</v>
       </c>
-      <c r="B50">
-        <v>99</v>
-      </c>
-      <c r="C50">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
         <v>181</v>
       </c>
-      <c r="G50" t="s">
-        <v>182</v>
-      </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
         <v>183</v>
       </c>
-      <c r="B51">
-        <v>99</v>
-      </c>
-      <c r="C51">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="G51" t="s">
         <v>184</v>
       </c>
-      <c r="G51" t="s">
-        <v>185</v>
-      </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
         <v>186</v>
       </c>
-      <c r="B52">
-        <v>99</v>
-      </c>
-      <c r="C52">
-        <v>99</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>187</v>
       </c>
-      <c r="G52" t="s">
-        <v>188</v>
-      </c>
       <c r="H52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
         <v>189</v>
       </c>
-      <c r="B53">
-        <v>99</v>
-      </c>
-      <c r="C53">
-        <v>99</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" t="s">
         <v>190</v>
       </c>
-      <c r="G53" t="s">
-        <v>192</v>
-      </c>
-      <c r="H53" t="s">
-        <v>191</v>
-      </c>
       <c r="Q53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54">
+        <v>99</v>
+      </c>
+      <c r="C54">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
         <v>193</v>
       </c>
-      <c r="B54">
-        <v>99</v>
-      </c>
-      <c r="C54">
-        <v>99</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
+        <v>195</v>
+      </c>
+      <c r="H54" t="s">
         <v>194</v>
       </c>
-      <c r="G54" t="s">
+      <c r="L54" t="s">
         <v>196</v>
       </c>
-      <c r="H54" t="s">
-        <v>195</v>
-      </c>
-      <c r="L54" t="s">
-        <v>197</v>
-      </c>
       <c r="Q54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55">
+        <v>99</v>
+      </c>
+      <c r="C55">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
         <v>198</v>
       </c>
-      <c r="B55">
-        <v>99</v>
-      </c>
-      <c r="C55">
-        <v>99</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" t="s">
         <v>199</v>
       </c>
-      <c r="E55" t="s">
-        <v>201</v>
-      </c>
-      <c r="G55" t="s">
-        <v>200</v>
-      </c>
       <c r="H55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56">
+        <v>99</v>
+      </c>
+      <c r="C56">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
         <v>202</v>
       </c>
-      <c r="B56">
-        <v>99</v>
-      </c>
-      <c r="C56">
-        <v>99</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>203</v>
       </c>
-      <c r="G56" t="s">
-        <v>204</v>
-      </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57">
+        <v>99</v>
+      </c>
+      <c r="C57">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
         <v>205</v>
       </c>
-      <c r="B57">
-        <v>99</v>
-      </c>
-      <c r="C57">
-        <v>99</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
         <v>206</v>
       </c>
-      <c r="G57" t="s">
-        <v>207</v>
-      </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58">
+        <v>99</v>
+      </c>
+      <c r="C58">
+        <v>99</v>
+      </c>
+      <c r="D58" t="s">
         <v>208</v>
       </c>
-      <c r="B58">
-        <v>99</v>
-      </c>
-      <c r="C58">
-        <v>99</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" t="s">
         <v>209</v>
       </c>
-      <c r="G58" t="s">
-        <v>211</v>
-      </c>
-      <c r="H58" t="s">
-        <v>210</v>
-      </c>
       <c r="I58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <v>99</v>
+      </c>
+      <c r="D59" t="s">
         <v>212</v>
       </c>
-      <c r="B59">
-        <v>99</v>
-      </c>
-      <c r="C59">
-        <v>99</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" t="s">
         <v>213</v>
       </c>
-      <c r="E59" t="s">
-        <v>215</v>
-      </c>
-      <c r="G59" t="s">
-        <v>214</v>
-      </c>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60">
+        <v>99</v>
+      </c>
+      <c r="C60">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
         <v>216</v>
       </c>
-      <c r="B60">
-        <v>99</v>
-      </c>
-      <c r="C60">
-        <v>99</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>218</v>
+      </c>
+      <c r="G60" t="s">
         <v>217</v>
       </c>
-      <c r="E60" t="s">
-        <v>219</v>
-      </c>
-      <c r="G60" t="s">
-        <v>218</v>
-      </c>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>300</v>
+      </c>
+      <c r="B61">
+        <v>99</v>
+      </c>
+      <c r="C61">
+        <v>99</v>
+      </c>
+      <c r="D61" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" t="s">
         <v>301</v>
       </c>
-      <c r="B61">
-        <v>99</v>
-      </c>
-      <c r="C61">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>317</v>
-      </c>
-      <c r="G61" t="s">
-        <v>302</v>
-      </c>
       <c r="H61" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" t="s">
         <v>307</v>
       </c>
-      <c r="I61" t="s">
-        <v>308</v>
-      </c>
       <c r="O61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62">
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
         <v>220</v>
       </c>
-      <c r="B62">
-        <v>99</v>
-      </c>
-      <c r="C62">
-        <v>99</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
         <v>221</v>
       </c>
-      <c r="G62" t="s">
-        <v>222</v>
-      </c>
       <c r="H62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63">
+        <v>99</v>
+      </c>
+      <c r="C63">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
         <v>223</v>
       </c>
-      <c r="B63">
-        <v>99</v>
-      </c>
-      <c r="C63">
-        <v>99</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
+        <v>225</v>
+      </c>
+      <c r="H63" t="s">
         <v>224</v>
       </c>
-      <c r="G63" t="s">
-        <v>226</v>
-      </c>
-      <c r="H63" t="s">
-        <v>225</v>
-      </c>
       <c r="L63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64">
+        <v>99</v>
+      </c>
+      <c r="C64">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
         <v>227</v>
       </c>
-      <c r="B64">
-        <v>99</v>
-      </c>
-      <c r="C64">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
         <v>228</v>
       </c>
-      <c r="G64" t="s">
-        <v>229</v>
-      </c>
       <c r="H64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65">
+        <v>99</v>
+      </c>
+      <c r="C65">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
         <v>230</v>
       </c>
-      <c r="B65">
-        <v>99</v>
-      </c>
-      <c r="C65">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>233</v>
+      </c>
+      <c r="G65" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" t="s">
         <v>231</v>
       </c>
-      <c r="E65" t="s">
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" t="s">
+        <v>209</v>
+      </c>
+      <c r="L65" t="s">
+        <v>97</v>
+      </c>
+      <c r="N65" t="s">
+        <v>11</v>
+      </c>
+      <c r="S65" t="s">
         <v>234</v>
-      </c>
-      <c r="G65" t="s">
-        <v>233</v>
-      </c>
-      <c r="H65" t="s">
-        <v>232</v>
-      </c>
-      <c r="I65" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" t="s">
-        <v>96</v>
-      </c>
-      <c r="K65" t="s">
-        <v>210</v>
-      </c>
-      <c r="L65" t="s">
-        <v>98</v>
-      </c>
-      <c r="N65" t="s">
-        <v>12</v>
-      </c>
-      <c r="S65" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66">
+        <v>99</v>
+      </c>
+      <c r="C66">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
         <v>236</v>
       </c>
-      <c r="B66">
-        <v>99</v>
-      </c>
-      <c r="C66">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G66" t="s">
+        <v>240</v>
+      </c>
+      <c r="H66" t="s">
         <v>237</v>
       </c>
-      <c r="E66" t="s">
+      <c r="I66" t="s">
+        <v>238</v>
+      </c>
+      <c r="J66" t="s">
+        <v>239</v>
+      </c>
+      <c r="L66" t="s">
         <v>242</v>
       </c>
-      <c r="G66" t="s">
-        <v>241</v>
-      </c>
-      <c r="H66" t="s">
-        <v>238</v>
-      </c>
-      <c r="I66" t="s">
-        <v>239</v>
-      </c>
-      <c r="J66" t="s">
-        <v>240</v>
-      </c>
-      <c r="L66" t="s">
-        <v>243</v>
-      </c>
       <c r="Q66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67">
+        <v>99</v>
+      </c>
+      <c r="C67">
+        <v>99</v>
+      </c>
+      <c r="D67" t="s">
         <v>244</v>
       </c>
-      <c r="B67">
-        <v>99</v>
-      </c>
-      <c r="C67">
-        <v>99</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>246</v>
+      </c>
+      <c r="G67" t="s">
         <v>245</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" t="s">
+        <v>61</v>
+      </c>
+      <c r="M67" t="s">
+        <v>11</v>
+      </c>
+      <c r="O67" t="s">
+        <v>11</v>
+      </c>
+      <c r="S67" t="s">
         <v>247</v>
-      </c>
-      <c r="G67" t="s">
-        <v>246</v>
-      </c>
-      <c r="H67" t="s">
-        <v>59</v>
-      </c>
-      <c r="L67" t="s">
-        <v>62</v>
-      </c>
-      <c r="M67" t="s">
-        <v>12</v>
-      </c>
-      <c r="O67" t="s">
-        <v>12</v>
-      </c>
-      <c r="S67" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68">
+        <v>99</v>
+      </c>
+      <c r="C68">
+        <v>99</v>
+      </c>
+      <c r="D68" t="s">
         <v>249</v>
       </c>
-      <c r="B68">
-        <v>99</v>
-      </c>
-      <c r="C68">
-        <v>99</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
         <v>250</v>
       </c>
-      <c r="G68" t="s">
-        <v>251</v>
-      </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B69">
         <v>99</v>
@@ -3469,82 +3470,82 @@
         <v>99</v>
       </c>
       <c r="D69" t="s">
+        <v>251</v>
+      </c>
+      <c r="G69" t="s">
+        <v>253</v>
+      </c>
+      <c r="H69" t="s">
         <v>252</v>
       </c>
-      <c r="G69" t="s">
-        <v>254</v>
-      </c>
-      <c r="H69" t="s">
-        <v>253</v>
-      </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P69" t="s">
+        <v>23</v>
+      </c>
+      <c r="R69" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" t="s">
         <v>24</v>
-      </c>
-      <c r="R69" t="s">
-        <v>24</v>
-      </c>
-      <c r="S69" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70">
+        <v>99</v>
+      </c>
+      <c r="C70">
+        <v>99</v>
+      </c>
+      <c r="D70" t="s">
         <v>255</v>
       </c>
-      <c r="B70">
-        <v>99</v>
-      </c>
-      <c r="C70">
-        <v>99</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>257</v>
+      </c>
+      <c r="G70" t="s">
         <v>256</v>
       </c>
-      <c r="E70" t="s">
-        <v>258</v>
-      </c>
-      <c r="G70" t="s">
-        <v>257</v>
-      </c>
       <c r="H70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71">
+        <v>99</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
         <v>259</v>
       </c>
-      <c r="B71">
-        <v>99</v>
-      </c>
-      <c r="C71">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="S71" t="s">
         <v>260</v>
-      </c>
-      <c r="S71" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B72">
         <v>99</v>
@@ -3553,24 +3554,24 @@
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B73">
         <v>99</v>
@@ -3579,30 +3580,30 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B74">
         <v>99</v>
@@ -3611,15 +3612,15 @@
         <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B75">
         <v>99</v>
@@ -3628,24 +3629,24 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B76">
         <v>99</v>
@@ -3654,36 +3655,36 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
+        <v>274</v>
+      </c>
+      <c r="G76" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" t="s">
+        <v>271</v>
+      </c>
+      <c r="I76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L76" t="s">
         <v>275</v>
       </c>
-      <c r="G76" t="s">
-        <v>274</v>
-      </c>
-      <c r="H76" t="s">
-        <v>272</v>
-      </c>
-      <c r="I76" t="s">
-        <v>273</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="P76" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>11</v>
+      </c>
+      <c r="R76" t="s">
+        <v>11</v>
+      </c>
+      <c r="S76" t="s">
         <v>276</v>
-      </c>
-      <c r="P76" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>12</v>
-      </c>
-      <c r="R76" t="s">
-        <v>12</v>
-      </c>
-      <c r="S76" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B77">
         <v>99</v>
@@ -3692,18 +3693,18 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
+        <v>278</v>
+      </c>
+      <c r="I77" t="s">
         <v>279</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>280</v>
-      </c>
-      <c r="J77" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B78">
         <v>99</v>
@@ -3712,15 +3713,15 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
+        <v>282</v>
+      </c>
+      <c r="I78" t="s">
         <v>283</v>
-      </c>
-      <c r="I78" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79">
         <v>99</v>
@@ -3729,12 +3730,12 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B80">
         <v>99</v>
@@ -3743,18 +3744,18 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
+        <v>287</v>
+      </c>
+      <c r="I80" t="s">
+        <v>279</v>
+      </c>
+      <c r="J80" t="s">
         <v>288</v>
-      </c>
-      <c r="I80" t="s">
-        <v>280</v>
-      </c>
-      <c r="J80" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B81">
         <v>99</v>
@@ -3763,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
+        <v>287</v>
+      </c>
+      <c r="I81" t="s">
         <v>288</v>
-      </c>
-      <c r="I81" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3786,4 +3787,16 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC55D62-091A-AC46-A3E5-C89FE2E22E9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/0_Author List_Meta_Analysis_Paper_Aug2024.xlsx
+++ b/0_Author List_Meta_Analysis_Paper_Aug2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmir/Library/CloudStorage/Dropbox/240822_authors_list_spreadsheet_meta_analysis_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE689F8-F047-1B45-B456-4A3CDA242BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3741280-60B5-4D44-A108-76F1894610DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="46320" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="46320" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Authors" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="397">
   <si>
-    <t>Name W/O Title (final name to use in authors list)</t>
-  </si>
-  <si>
     <t>sort level: 1 - Our author order (manual)</t>
   </si>
   <si>
@@ -1231,6 +1228,9 @@
   </si>
   <si>
     <t>Helsinki Institute for Demography and Population Health, University of Helsinki, Helsinki, Finland</t>
+  </si>
+  <si>
+    <t>Name W/O Title (Name Actually Used in Paper Author List)</t>
   </si>
 </sst>
 </file>
@@ -1352,32 +1352,6 @@
   <dxfs count="29">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Apple Symbols"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1403,6 +1377,32 @@
         <sz val="12"/>
         <name val="Apple Symbols"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Apple Symbols"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -1588,7 +1588,7 @@
     <sortCondition ref="D2:D81"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name W/O Title (final name to use in authors list)" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name W/O Title (Name Actually Used in Paper Author List)" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sort level: 1 - Our author order (manual)" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sort Level 2: Senior Order (manual)" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sort Level 3: Surname (for alphabetical sorting)" dataDxfId="23"/>
@@ -1623,11 +1623,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07F1CCE7-75D5-1E4D-A4D3-2129918946D4}" name="Affiliations" displayName="Affiliations" ref="A1:B61" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07F1CCE7-75D5-1E4D-A4D3-2129918946D4}" name="Affiliations" displayName="Affiliations" ref="A1:B61" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B61" xr:uid="{07F1CCE7-75D5-1E4D-A4D3-2129918946D4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9C073874-766E-7948-84CB-E8921EEC061F}" name="Affiliation ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0E8DA387-1167-D943-AC68-3782D348FA4D}" name="Affiliation Name" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9C073874-766E-7948-84CB-E8921EEC061F}" name="Affiliation ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0E8DA387-1167-D943-AC68-3782D348FA4D}" name="Affiliation Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1920,27 +1920,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.1640625" customWidth="1"/>
@@ -1956,78 +1956,78 @@
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I2" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2064,7 +2064,7 @@
         <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2092,7 +2092,7 @@
         <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2120,7 +2120,7 @@
         <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2148,13 +2148,13 @@
         <v>99</v>
       </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I6" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2182,7 +2182,7 @@
         <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I7" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2201,22 +2201,22 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
-        <v>99</v>
-      </c>
-      <c r="C8">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2233,39 +2233,39 @@
       </c>
       <c r="N8"/>
       <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="29">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
-        <v>99</v>
-      </c>
-      <c r="C9">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I9" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2282,34 +2282,34 @@
       </c>
       <c r="N9"/>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="29">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="B10">
-        <v>99</v>
-      </c>
-      <c r="C10">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I10" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>NORMENT Centre, University of Oslo, Oslo, Norway</v>
       </c>
       <c r="J10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K10" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2321,41 +2321,41 @@
       </c>
       <c r="N10"/>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="43">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="B11">
-        <v>99</v>
-      </c>
-      <c r="C11">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I11" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>HUNT Center for Molecular and Clinical Epidemiology, Department of Public Health and Nursing, NTNU, Norwegian University of Science and Technology, Trondheim, 7030, Norway</v>
       </c>
       <c r="J11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K11" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>HUNT Research Center, Department of Public Health and Nursing, NTNU, Norwegian University of Science and Technology, Levanger, 7600, Norway</v>
       </c>
       <c r="L11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Third Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2363,36 +2363,36 @@
       </c>
       <c r="N11"/>
       <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
         <v>50</v>
-      </c>
-      <c r="V11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="29">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>99</v>
+      </c>
+      <c r="C12">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="B12">
-        <v>99</v>
-      </c>
-      <c r="C12">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I12" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2409,27 +2409,27 @@
       </c>
       <c r="N12"/>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="43">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="B13">
-        <v>99</v>
-      </c>
-      <c r="C13">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I13" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2446,42 +2446,42 @@
       </c>
       <c r="N13"/>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="43">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="B14">
-        <v>99</v>
-      </c>
-      <c r="C14">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
       <c r="H14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I14" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2498,46 +2498,46 @@
       </c>
       <c r="N14"/>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="43">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="B15">
-        <v>99</v>
-      </c>
-      <c r="C15">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
       <c r="H15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I15" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>HUNT Center for Molecular and Clinical Epidemiology, Department of Public Health and Nursing, NTNU, Norwegian University of Science and Technology, Trondheim, 7030, Norway</v>
       </c>
       <c r="J15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K15" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2549,48 +2549,48 @@
       </c>
       <c r="N15"/>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="29">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
         <v>72</v>
       </c>
-      <c r="B16">
-        <v>99</v>
-      </c>
-      <c r="C16">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>73</v>
       </c>
-      <c r="G16" t="s">
-        <v>74</v>
-      </c>
       <c r="H16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I16" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2607,33 +2607,33 @@
       </c>
       <c r="N16"/>
       <c r="P16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="29">
       <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="B17">
-        <v>99</v>
-      </c>
-      <c r="C17">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>78</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
       <c r="H17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I17" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2650,36 +2650,36 @@
       </c>
       <c r="N17"/>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="29">
       <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
         <v>83</v>
       </c>
-      <c r="B18">
-        <v>99</v>
-      </c>
-      <c r="C18">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>84</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
       <c r="H18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I18" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2696,18 +2696,18 @@
       </c>
       <c r="N18"/>
       <c r="P18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" t="s">
         <v>88</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>34</v>
-      </c>
-      <c r="W18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19">
         <v>99</v>
@@ -2716,7 +2716,7 @@
         <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2738,29 +2738,29 @@
     </row>
     <row r="20" spans="1:23" ht="29">
       <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="B20">
-        <v>99</v>
-      </c>
-      <c r="C20">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>92</v>
       </c>
-      <c r="G20" t="s">
-        <v>93</v>
-      </c>
       <c r="H20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I20" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Nic Waals Institute, Lovisenberg Diaconal Hospital, Oslo, Norway</v>
       </c>
       <c r="J20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K20" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2772,37 +2772,37 @@
       </c>
       <c r="N20"/>
       <c r="S20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="43">
       <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>99</v>
+      </c>
+      <c r="C21">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="B21">
-        <v>99</v>
-      </c>
-      <c r="C21">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>97</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>98</v>
       </c>
-      <c r="G21" t="s">
-        <v>99</v>
-      </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I21" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Department of Biological Psychology, Vrije Universiteit Amsterdam, De Boelelaan 1105 1081 HV Amsterdam, The Netherlands</v>
       </c>
       <c r="J21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K21" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2814,39 +2814,39 @@
       </c>
       <c r="N21"/>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="29">
       <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="B22">
-        <v>99</v>
-      </c>
-      <c r="C22">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>103</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="s">
-        <v>105</v>
-      </c>
       <c r="H22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I22" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2863,30 +2863,30 @@
       </c>
       <c r="N22"/>
       <c r="P22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="B23">
-        <v>99</v>
-      </c>
-      <c r="C23">
-        <v>99</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>108</v>
       </c>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
       <c r="H23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I23" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2903,30 +2903,30 @@
       </c>
       <c r="N23"/>
       <c r="P23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24">
+        <v>99</v>
+      </c>
+      <c r="C24">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="B24">
-        <v>99</v>
-      </c>
-      <c r="C24">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>113</v>
       </c>
-      <c r="G24" t="s">
-        <v>114</v>
-      </c>
       <c r="H24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I24" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2943,12 +2943,12 @@
       </c>
       <c r="N24"/>
       <c r="P24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="29">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25">
         <v>99</v>
@@ -2957,13 +2957,13 @@
         <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I25" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -2980,18 +2980,18 @@
       </c>
       <c r="N25"/>
       <c r="P25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26">
         <v>99</v>
@@ -3000,13 +3000,13 @@
         <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I26" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3025,29 +3025,29 @@
     </row>
     <row r="27" spans="1:23" ht="29">
       <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
         <v>119</v>
       </c>
-      <c r="B27">
-        <v>99</v>
-      </c>
-      <c r="C27">
-        <v>99</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="G27" t="s">
         <v>120</v>
       </c>
-      <c r="G27" t="s">
-        <v>121</v>
-      </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I27" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Institute for Molecular Medicine Finland FIMM, HighLife, University of Helsinki, Helsinki, FIN-00140 Finland</v>
       </c>
       <c r="J27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K27" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3059,27 +3059,27 @@
       </c>
       <c r="N27"/>
       <c r="P27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="29">
       <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
         <v>123</v>
       </c>
-      <c r="B28">
-        <v>99</v>
-      </c>
-      <c r="C28">
-        <v>99</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>124</v>
       </c>
-      <c r="G28" t="s">
-        <v>125</v>
-      </c>
       <c r="H28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I28" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3096,37 +3096,37 @@
       </c>
       <c r="N28"/>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="29">
       <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
         <v>128</v>
       </c>
-      <c r="B29">
-        <v>99</v>
-      </c>
-      <c r="C29">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>129</v>
       </c>
-      <c r="G29" t="s">
-        <v>130</v>
-      </c>
       <c r="H29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I29" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Institute for Molecular Medicine Finland FIMM, HighLife, University of Helsinki, Helsinki, FIN-00140 Finland</v>
       </c>
       <c r="J29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K29" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3138,33 +3138,33 @@
       </c>
       <c r="N29"/>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="43">
       <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30">
+        <v>99</v>
+      </c>
+      <c r="C30">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
         <v>133</v>
       </c>
-      <c r="B30">
-        <v>99</v>
-      </c>
-      <c r="C30">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>134</v>
       </c>
-      <c r="G30" t="s">
-        <v>135</v>
-      </c>
       <c r="H30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I30" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3181,49 +3181,49 @@
       </c>
       <c r="N30"/>
       <c r="P30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="43">
       <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31">
+        <v>99</v>
+      </c>
+      <c r="C31">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
         <v>137</v>
       </c>
-      <c r="B31">
-        <v>99</v>
-      </c>
-      <c r="C31">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>138</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>139</v>
       </c>
-      <c r="G31" t="s">
-        <v>140</v>
-      </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I31" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>PsychGen Centre for Genetic Epidemiology and Mental Health, Child Health and Development, Norwegian Institute of Public Health, Oslo, Norway</v>
       </c>
       <c r="J31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K31" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3235,40 +3235,40 @@
       </c>
       <c r="N31"/>
       <c r="P31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="43">
       <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32">
+        <v>99</v>
+      </c>
+      <c r="C32">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
         <v>142</v>
       </c>
-      <c r="B32">
-        <v>99</v>
-      </c>
-      <c r="C32">
-        <v>99</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>143</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>144</v>
       </c>
-      <c r="G32" t="s">
-        <v>145</v>
-      </c>
       <c r="H32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I32" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Netherlands Twin Register, Department of Biological Psychology, Vrije Universiteit Amsterdam, De Boelelaan 1105 1081 HV Amsterdam, The Netherlands</v>
       </c>
       <c r="J32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K32" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3280,39 +3280,39 @@
       </c>
       <c r="N32"/>
       <c r="P32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="43">
       <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33">
+        <v>99</v>
+      </c>
+      <c r="C33">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
         <v>147</v>
       </c>
-      <c r="B33">
-        <v>99</v>
-      </c>
-      <c r="C33">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>148</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>149</v>
       </c>
-      <c r="G33" t="s">
-        <v>150</v>
-      </c>
       <c r="H33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I33" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3329,30 +3329,30 @@
       </c>
       <c r="N33"/>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34">
+        <v>99</v>
+      </c>
+      <c r="C34">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
         <v>153</v>
       </c>
-      <c r="B34">
-        <v>99</v>
-      </c>
-      <c r="C34">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>154</v>
-      </c>
       <c r="H34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I34" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3371,29 +3371,29 @@
     </row>
     <row r="35" spans="1:23" ht="43">
       <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
         <v>155</v>
       </c>
-      <c r="B35">
-        <v>99</v>
-      </c>
-      <c r="C35">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>156</v>
       </c>
-      <c r="G35" t="s">
-        <v>157</v>
-      </c>
       <c r="H35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I35" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>HUNT Center for Molecular and Clinical Epidemiology, Department of Public Health and Nursing, NTNU, Norwegian University of Science and Technology, Trondheim, 7030, Norway</v>
       </c>
       <c r="J35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K35" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3405,36 +3405,36 @@
       </c>
       <c r="N35"/>
       <c r="P35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" t="s">
+        <v>44</v>
+      </c>
+      <c r="V35" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" t="s">
         <v>50</v>
-      </c>
-      <c r="R35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W35" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="29">
       <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36">
+        <v>99</v>
+      </c>
+      <c r="C36">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
         <v>158</v>
       </c>
-      <c r="B36">
-        <v>99</v>
-      </c>
-      <c r="C36">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>159</v>
       </c>
-      <c r="G36" t="s">
-        <v>160</v>
-      </c>
       <c r="H36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I36" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3451,36 +3451,36 @@
       </c>
       <c r="N36"/>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="43">
       <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37">
+        <v>99</v>
+      </c>
+      <c r="C37">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
         <v>162</v>
       </c>
-      <c r="B37">
-        <v>99</v>
-      </c>
-      <c r="C37">
-        <v>99</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
         <v>163</v>
       </c>
-      <c r="G37" t="s">
-        <v>164</v>
-      </c>
       <c r="H37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I37" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3497,36 +3497,36 @@
       </c>
       <c r="N37"/>
       <c r="P37" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" t="s">
+        <v>44</v>
+      </c>
+      <c r="V37" t="s">
+        <v>44</v>
+      </c>
+      <c r="W37" t="s">
         <v>50</v>
-      </c>
-      <c r="R37" t="s">
-        <v>45</v>
-      </c>
-      <c r="V37" t="s">
-        <v>45</v>
-      </c>
-      <c r="W37" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
         <v>165</v>
       </c>
-      <c r="B38">
-        <v>99</v>
-      </c>
-      <c r="C38">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="G38" t="s">
         <v>166</v>
       </c>
-      <c r="G38" t="s">
-        <v>167</v>
-      </c>
       <c r="H38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I38" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3543,33 +3543,33 @@
       </c>
       <c r="N38"/>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="29">
       <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39">
+        <v>99</v>
+      </c>
+      <c r="C39">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
         <v>169</v>
       </c>
-      <c r="B39">
-        <v>99</v>
-      </c>
-      <c r="C39">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>170</v>
       </c>
-      <c r="G39" t="s">
-        <v>171</v>
-      </c>
       <c r="H39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I39" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3586,30 +3586,30 @@
       </c>
       <c r="N39"/>
       <c r="P39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="29">
       <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40">
+        <v>99</v>
+      </c>
+      <c r="C40">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
         <v>172</v>
       </c>
-      <c r="B40">
-        <v>99</v>
-      </c>
-      <c r="C40">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>173</v>
       </c>
-      <c r="G40" t="s">
-        <v>174</v>
-      </c>
       <c r="H40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I40" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3626,53 +3626,53 @@
       </c>
       <c r="N40"/>
       <c r="P40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="43">
       <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41">
+        <v>99</v>
+      </c>
+      <c r="C41">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
         <v>176</v>
       </c>
-      <c r="B41">
-        <v>99</v>
-      </c>
-      <c r="C41">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>177</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>178</v>
       </c>
-      <c r="G41" t="s">
-        <v>179</v>
-      </c>
       <c r="H41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I41" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Department of Epidemiology &amp; Biostatistics, School of Public Health, Peking University, Xueyuan Road, Haidian District, 100191, Beijing, China</v>
       </c>
       <c r="J41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K41" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Peking University Center for Public Health and Epidemic Preparedness and Response, 100191, Beijing, China</v>
       </c>
       <c r="L41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M41" s="7" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Third Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3680,18 +3680,18 @@
       </c>
       <c r="N41"/>
       <c r="P41" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>33</v>
+      </c>
+      <c r="W41" t="s">
         <v>88</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>34</v>
-      </c>
-      <c r="W41" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="57">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42">
         <v>99</v>
@@ -3700,13 +3700,13 @@
         <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I42" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3725,25 +3725,25 @@
     </row>
     <row r="43" spans="1:23" ht="29">
       <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43">
+        <v>99</v>
+      </c>
+      <c r="C43">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
         <v>185</v>
       </c>
-      <c r="B43">
-        <v>99</v>
-      </c>
-      <c r="C43">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>186</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>187</v>
       </c>
-      <c r="G43" t="s">
-        <v>188</v>
-      </c>
       <c r="H43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I43" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3760,53 +3760,53 @@
       </c>
       <c r="N43"/>
       <c r="P43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="43">
       <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44">
+        <v>99</v>
+      </c>
+      <c r="C44">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
         <v>189</v>
       </c>
-      <c r="B44">
-        <v>99</v>
-      </c>
-      <c r="C44">
-        <v>99</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>190</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>191</v>
       </c>
-      <c r="G44" t="s">
-        <v>192</v>
-      </c>
       <c r="H44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I44" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Department of Economics, Leiden Law School, Leiden University, Steenschuur 25, 2311 ES Leiden, the Netherlands</v>
       </c>
       <c r="J44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K44" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Autism and Developmental Medicine Institute, Geisinger Health System, 120 Hamm Drive, Lewisburg, PA 17837, USA</v>
       </c>
       <c r="L44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M44" s="7" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Third Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3814,46 +3814,46 @@
       </c>
       <c r="N44"/>
       <c r="P44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="43">
       <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45">
+        <v>99</v>
+      </c>
+      <c r="C45">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
         <v>196</v>
       </c>
-      <c r="B45">
-        <v>99</v>
-      </c>
-      <c r="C45">
-        <v>99</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
         <v>197</v>
       </c>
-      <c r="G45" t="s">
-        <v>198</v>
-      </c>
       <c r="H45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I45" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>VATT Institute for Economic Research, Finland</v>
       </c>
       <c r="J45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K45" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3865,34 +3865,34 @@
       </c>
       <c r="N45"/>
       <c r="P45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="29">
       <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
         <v>200</v>
       </c>
-      <c r="B46">
-        <v>99</v>
-      </c>
-      <c r="C46">
-        <v>99</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>201</v>
       </c>
-      <c r="G46" t="s">
-        <v>202</v>
-      </c>
       <c r="H46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I46" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Estonian Biobank Research Team: Andres Metspalu, Mari Nelis, Lili Milani, Reedik Mägi &amp; Tõnu Esko</v>
       </c>
       <c r="J46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K46" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3904,27 +3904,27 @@
       </c>
       <c r="N46"/>
       <c r="P46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="29">
       <c r="A47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
         <v>203</v>
       </c>
-      <c r="B47">
-        <v>99</v>
-      </c>
-      <c r="C47">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
         <v>204</v>
       </c>
-      <c r="G47" t="s">
-        <v>205</v>
-      </c>
       <c r="H47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I47" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3941,36 +3941,36 @@
       </c>
       <c r="N47"/>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="29">
       <c r="A48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48">
+        <v>99</v>
+      </c>
+      <c r="C48">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
         <v>208</v>
       </c>
-      <c r="B48">
-        <v>99</v>
-      </c>
-      <c r="C48">
-        <v>99</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>209</v>
       </c>
-      <c r="G48" t="s">
-        <v>210</v>
-      </c>
       <c r="H48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I48" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -3987,39 +3987,39 @@
       </c>
       <c r="N48"/>
       <c r="P48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="29">
       <c r="A49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49">
+        <v>99</v>
+      </c>
+      <c r="C49">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
         <v>211</v>
       </c>
-      <c r="B49">
-        <v>99</v>
-      </c>
-      <c r="C49">
-        <v>99</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>212</v>
       </c>
-      <c r="G49" t="s">
-        <v>213</v>
-      </c>
       <c r="H49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I49" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4036,43 +4036,43 @@
       </c>
       <c r="N49"/>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="29">
       <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
         <v>214</v>
       </c>
-      <c r="B50">
-        <v>99</v>
-      </c>
-      <c r="C50">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
         <v>215</v>
       </c>
-      <c r="G50" t="s">
-        <v>216</v>
-      </c>
       <c r="H50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I50" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Estonian Biobank Research Team: Andres Metspalu, Mari Nelis, Lili Milani, Reedik Mägi &amp; Tõnu Esko</v>
       </c>
       <c r="J50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K50" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4084,34 +4084,34 @@
       </c>
       <c r="N50"/>
       <c r="P50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="29">
       <c r="A51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
         <v>217</v>
       </c>
-      <c r="B51">
-        <v>99</v>
-      </c>
-      <c r="C51">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="G51" t="s">
         <v>218</v>
       </c>
-      <c r="G51" t="s">
-        <v>219</v>
-      </c>
       <c r="H51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I51" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Estonian Biobank Research Team: Andres Metspalu, Mari Nelis, Lili Milani, Reedik Mägi &amp; Tõnu Esko</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K51" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4123,27 +4123,27 @@
       </c>
       <c r="N51"/>
       <c r="P51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="29">
       <c r="A52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
         <v>220</v>
       </c>
-      <c r="B52">
-        <v>99</v>
-      </c>
-      <c r="C52">
-        <v>99</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>221</v>
       </c>
-      <c r="G52" t="s">
-        <v>222</v>
-      </c>
       <c r="H52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I52" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4160,33 +4160,33 @@
       </c>
       <c r="N52"/>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="29">
       <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
         <v>223</v>
       </c>
-      <c r="B53">
-        <v>99</v>
-      </c>
-      <c r="C53">
-        <v>99</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>224</v>
       </c>
-      <c r="G53" t="s">
-        <v>225</v>
-      </c>
       <c r="H53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I53" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4203,27 +4203,27 @@
       </c>
       <c r="N53"/>
       <c r="U53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="29">
       <c r="A54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54">
+        <v>99</v>
+      </c>
+      <c r="C54">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
         <v>227</v>
       </c>
-      <c r="B54">
-        <v>99</v>
-      </c>
-      <c r="C54">
-        <v>99</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
         <v>228</v>
       </c>
-      <c r="G54" t="s">
-        <v>229</v>
-      </c>
       <c r="H54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I54" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4240,33 +4240,33 @@
       </c>
       <c r="N54"/>
       <c r="P54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="29">
       <c r="A55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55">
+        <v>99</v>
+      </c>
+      <c r="C55">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
         <v>232</v>
       </c>
-      <c r="B55">
-        <v>99</v>
-      </c>
-      <c r="C55">
-        <v>99</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>233</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>234</v>
       </c>
-      <c r="G55" t="s">
-        <v>235</v>
-      </c>
       <c r="H55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I55" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4283,30 +4283,30 @@
       </c>
       <c r="N55"/>
       <c r="P55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56">
+        <v>99</v>
+      </c>
+      <c r="C56">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
         <v>236</v>
       </c>
-      <c r="B56">
-        <v>99</v>
-      </c>
-      <c r="C56">
-        <v>99</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>237</v>
       </c>
-      <c r="G56" t="s">
-        <v>238</v>
-      </c>
       <c r="H56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I56" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4323,33 +4323,33 @@
       </c>
       <c r="N56"/>
       <c r="P56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" t="s">
         <v>33</v>
       </c>
-      <c r="Q56" t="s">
-        <v>34</v>
-      </c>
       <c r="R56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="29">
       <c r="A57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57">
+        <v>99</v>
+      </c>
+      <c r="C57">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
         <v>239</v>
       </c>
-      <c r="B57">
-        <v>99</v>
-      </c>
-      <c r="C57">
-        <v>99</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
         <v>240</v>
       </c>
-      <c r="G57" t="s">
-        <v>241</v>
-      </c>
       <c r="H57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I57" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4366,43 +4366,43 @@
       </c>
       <c r="N57"/>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="43">
       <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58">
+        <v>99</v>
+      </c>
+      <c r="C58">
+        <v>99</v>
+      </c>
+      <c r="D58" t="s">
         <v>242</v>
       </c>
-      <c r="B58">
-        <v>99</v>
-      </c>
-      <c r="C58">
-        <v>99</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
         <v>243</v>
       </c>
-      <c r="G58" t="s">
-        <v>244</v>
-      </c>
       <c r="H58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I58" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Lund University Diabetes Centre, Malmo, Sweden</v>
       </c>
       <c r="J58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K58" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4414,42 +4414,42 @@
       </c>
       <c r="N58"/>
       <c r="P58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <v>99</v>
+      </c>
+      <c r="D59" t="s">
         <v>246</v>
       </c>
-      <c r="B59">
-        <v>99</v>
-      </c>
-      <c r="C59">
-        <v>99</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>247</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>248</v>
       </c>
-      <c r="G59" t="s">
-        <v>249</v>
-      </c>
       <c r="H59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I59" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4466,36 +4466,36 @@
       </c>
       <c r="N59"/>
       <c r="P59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60">
+        <v>99</v>
+      </c>
+      <c r="C60">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
         <v>250</v>
       </c>
-      <c r="B60">
-        <v>99</v>
-      </c>
-      <c r="C60">
-        <v>99</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>251</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>252</v>
       </c>
-      <c r="G60" t="s">
-        <v>253</v>
-      </c>
       <c r="H60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I60" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4512,43 +4512,43 @@
       </c>
       <c r="N60"/>
       <c r="P60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="43">
       <c r="A61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61">
+        <v>99</v>
+      </c>
+      <c r="C61">
+        <v>99</v>
+      </c>
+      <c r="D61" t="s">
         <v>254</v>
       </c>
-      <c r="B61">
-        <v>99</v>
-      </c>
-      <c r="C61">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>255</v>
       </c>
-      <c r="G61" t="s">
-        <v>256</v>
-      </c>
       <c r="H61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I61" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Centre for Precision Psychiatry, Division of Mental Health and Addiction, University of Oslo and Oslo University Hospital, Oslo, Norway</v>
       </c>
       <c r="J61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K61" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4560,27 +4560,27 @@
       </c>
       <c r="N61"/>
       <c r="S61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="29">
       <c r="A62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62">
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
         <v>259</v>
       </c>
-      <c r="B62">
-        <v>99</v>
-      </c>
-      <c r="C62">
-        <v>99</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
         <v>260</v>
       </c>
-      <c r="G62" t="s">
-        <v>261</v>
-      </c>
       <c r="H62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I62" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4597,30 +4597,30 @@
       </c>
       <c r="N62"/>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="29">
       <c r="A63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63">
+        <v>99</v>
+      </c>
+      <c r="C63">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
         <v>262</v>
       </c>
-      <c r="B63">
-        <v>99</v>
-      </c>
-      <c r="C63">
-        <v>99</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
         <v>263</v>
       </c>
-      <c r="G63" t="s">
-        <v>264</v>
-      </c>
       <c r="H63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I63" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4637,33 +4637,33 @@
       </c>
       <c r="N63"/>
       <c r="P63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="29">
       <c r="A64" t="s">
+        <v>264</v>
+      </c>
+      <c r="B64">
+        <v>99</v>
+      </c>
+      <c r="C64">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
         <v>265</v>
       </c>
-      <c r="B64">
-        <v>99</v>
-      </c>
-      <c r="C64">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
         <v>266</v>
       </c>
-      <c r="G64" t="s">
-        <v>267</v>
-      </c>
       <c r="H64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I64" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4680,103 +4680,103 @@
       </c>
       <c r="N64"/>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="43">
       <c r="A65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65">
+        <v>99</v>
+      </c>
+      <c r="C65">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
         <v>268</v>
       </c>
-      <c r="B65">
-        <v>99</v>
-      </c>
-      <c r="C65">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>269</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>270</v>
       </c>
-      <c r="G65" t="s">
-        <v>271</v>
-      </c>
       <c r="H65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I65" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Endocrinology, Abdominal Centre, Helsinki University Hospital, Po Box 340, FIN-0029, Helsinki, Finland</v>
       </c>
       <c r="J65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K65" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Institute for Molecular Medicine Finland FIMM, HighLife, University of Helsinki, Helsinki, FIN-00140 Finland</v>
       </c>
       <c r="L65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M65" s="7" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Third Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Folkhalsan Research Center, Helsinki, FIN-00140 FInland</v>
       </c>
       <c r="N65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="43">
       <c r="A66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66">
+        <v>99</v>
+      </c>
+      <c r="C66">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
         <v>274</v>
       </c>
-      <c r="B66">
-        <v>99</v>
-      </c>
-      <c r="C66">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>275</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>276</v>
       </c>
-      <c r="G66" t="s">
-        <v>277</v>
-      </c>
       <c r="H66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I66" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>National Centre for Register-based Research, Aarhus University</v>
       </c>
       <c r="J66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K66" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Bioinformatics Research Centre, Dept. of Molecular Biology and Genetics, Aarhus University</v>
       </c>
       <c r="L66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M66" s="7" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Third Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4784,33 +4784,33 @@
       </c>
       <c r="N66"/>
       <c r="P66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="29">
       <c r="A67" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67">
+        <v>99</v>
+      </c>
+      <c r="C67">
+        <v>99</v>
+      </c>
+      <c r="D67" t="s">
         <v>282</v>
       </c>
-      <c r="B67">
-        <v>99</v>
-      </c>
-      <c r="C67">
-        <v>99</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>283</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>284</v>
       </c>
-      <c r="G67" t="s">
-        <v>285</v>
-      </c>
       <c r="H67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I67" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4827,36 +4827,36 @@
       </c>
       <c r="N67"/>
       <c r="P67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="29">
       <c r="A68" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68">
+        <v>99</v>
+      </c>
+      <c r="C68">
+        <v>99</v>
+      </c>
+      <c r="D68" t="s">
         <v>287</v>
       </c>
-      <c r="B68">
-        <v>99</v>
-      </c>
-      <c r="C68">
-        <v>99</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
         <v>288</v>
       </c>
-      <c r="G68" t="s">
-        <v>289</v>
-      </c>
       <c r="H68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I68" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4873,40 +4873,40 @@
       </c>
       <c r="N68"/>
       <c r="P68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="57">
       <c r="A69" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69">
+        <v>99</v>
+      </c>
+      <c r="C69">
+        <v>99</v>
+      </c>
+      <c r="D69" t="s">
         <v>290</v>
       </c>
-      <c r="B69">
-        <v>99</v>
-      </c>
-      <c r="C69">
-        <v>99</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="G69" t="s">
         <v>291</v>
       </c>
-      <c r="G69" t="s">
-        <v>292</v>
-      </c>
       <c r="H69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I69" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Department of Research and Innovation, Division of Clinical Neuroscience, Oslo University Hospital, Oslo, Norway</v>
       </c>
       <c r="J69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K69" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4918,46 +4918,46 @@
       </c>
       <c r="N69"/>
       <c r="P69" t="s">
+        <v>49</v>
+      </c>
+      <c r="T69" t="s">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s">
         <v>50</v>
-      </c>
-      <c r="T69" t="s">
-        <v>45</v>
-      </c>
-      <c r="V69" t="s">
-        <v>45</v>
-      </c>
-      <c r="W69" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="43">
       <c r="A70" t="s">
+        <v>293</v>
+      </c>
+      <c r="B70">
+        <v>99</v>
+      </c>
+      <c r="C70">
+        <v>99</v>
+      </c>
+      <c r="D70" t="s">
         <v>294</v>
       </c>
-      <c r="B70">
-        <v>99</v>
-      </c>
-      <c r="C70">
-        <v>99</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>295</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>296</v>
       </c>
-      <c r="G70" t="s">
-        <v>297</v>
-      </c>
       <c r="H70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I70" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>PROMENTA Research Center, Department of Psychology, University of Oslo, Oslo, Norway</v>
       </c>
       <c r="J70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K70" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -4969,15 +4969,15 @@
       </c>
       <c r="N70"/>
       <c r="P70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="29">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B71">
         <v>99</v>
@@ -4986,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I71" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5003,12 +5003,12 @@
       </c>
       <c r="N71"/>
       <c r="W71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="29">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B72">
         <v>99</v>
@@ -5017,10 +5017,10 @@
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H72" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I72" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5037,18 +5037,18 @@
       </c>
       <c r="N72"/>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="29">
       <c r="A73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B73">
         <v>99</v>
@@ -5057,17 +5057,17 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I73" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Institute for Molecular Bioscience, University of Queensland, Australia</v>
       </c>
       <c r="J73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K73" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5079,21 +5079,21 @@
       </c>
       <c r="N73"/>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="43">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B74">
         <v>99</v>
@@ -5102,7 +5102,7 @@
         <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I74" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5119,12 +5119,12 @@
       </c>
       <c r="N74"/>
       <c r="W74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="29">
       <c r="A75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B75">
         <v>99</v>
@@ -5133,10 +5133,10 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I75" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5153,18 +5153,18 @@
       </c>
       <c r="N75"/>
       <c r="U75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="43">
       <c r="A76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B76">
         <v>99</v>
@@ -5173,20 +5173,20 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
+        <v>310</v>
+      </c>
+      <c r="G76" t="s">
         <v>311</v>
       </c>
-      <c r="G76" t="s">
-        <v>312</v>
-      </c>
       <c r="H76" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I76" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Department of Neurology, David Geffen School of Medicine, University of California, Los Angeles, 885 Tiverton Dr., Los Angeles, CA 90095</v>
       </c>
       <c r="J76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K76" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5198,24 +5198,24 @@
       </c>
       <c r="N76"/>
       <c r="P76" t="s">
+        <v>314</v>
+      </c>
+      <c r="T76" t="s">
+        <v>33</v>
+      </c>
+      <c r="U76" t="s">
+        <v>33</v>
+      </c>
+      <c r="V76" t="s">
+        <v>33</v>
+      </c>
+      <c r="W76" t="s">
         <v>315</v>
-      </c>
-      <c r="T76" t="s">
-        <v>34</v>
-      </c>
-      <c r="U76" t="s">
-        <v>34</v>
-      </c>
-      <c r="V76" t="s">
-        <v>34</v>
-      </c>
-      <c r="W76" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="29">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B77">
         <v>99</v>
@@ -5224,21 +5224,21 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I77" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Department of Economics, New York University, New York, NY</v>
       </c>
       <c r="J77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K77" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>National Bureau of Economic Research, Cambridge, MA, USA</v>
       </c>
       <c r="L77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M77" s="7" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Third Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="78" spans="1:23" ht="29">
       <c r="A78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B78">
         <v>99</v>
@@ -5257,14 +5257,14 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I78" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>Department of Economics, University of Southern California, Los Angeles, CA, USA</v>
       </c>
       <c r="J78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K78" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="79" spans="1:23" ht="29">
       <c r="A79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B79">
         <v>99</v>
@@ -5287,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I79" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="80" spans="1:23" ht="29">
       <c r="A80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B80">
         <v>99</v>
@@ -5315,21 +5315,21 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I80" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>UCLA Anderson School of Management, Los Angeles, CA, USA</v>
       </c>
       <c r="J80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K80" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>National Bureau of Economic Research, Cambridge, MA, USA</v>
       </c>
       <c r="L80" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M80" s="7" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Third Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="81" spans="1:14" ht="29">
       <c r="A81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B81">
         <v>99</v>
@@ -5348,14 +5348,14 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I81" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Primary Affiliation ID (from affiliations sheet)]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
         <v>UCLA Anderson School of Management, Los Angeles, CA, USA</v>
       </c>
       <c r="J81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K81" s="6" t="str">
         <f>_xlfn.XLOOKUP(Authors[[#This Row],[Second Affiliation ID]],Affiliations[Affiliation ID], Affiliations[Affiliation Name], "")</f>
@@ -5385,7 +5385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5401,490 +5401,490 @@
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
       <c r="A59" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
       <c r="A61" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
